--- a/data/trans_orig/P2C_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>126279</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>109200</v>
+        <v>108535</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>143096</v>
+        <v>143362</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4481668665218785</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3875539941831055</v>
+        <v>0.3851915886805276</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5078510568905101</v>
+        <v>0.5087960844498558</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>107</v>
@@ -765,19 +765,19 @@
         <v>111372</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>97795</v>
+        <v>97969</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>124685</v>
+        <v>126546</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5397235091483782</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4739235884490737</v>
+        <v>0.4747701674424805</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6042396294431734</v>
+        <v>0.6132543869017031</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>230</v>
@@ -786,19 +786,19 @@
         <v>237652</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>214116</v>
+        <v>216394</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>257827</v>
+        <v>260488</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4868721551005265</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4386546241531138</v>
+        <v>0.4433215868827282</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5282055425896427</v>
+        <v>0.533656628417823</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>155489</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>138672</v>
+        <v>138406</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>172568</v>
+        <v>173233</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5518331334781215</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4921489431094898</v>
+        <v>0.4912039155501444</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6124460058168946</v>
+        <v>0.6148084113194726</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>94</v>
@@ -836,19 +836,19 @@
         <v>94979</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>81666</v>
+        <v>79805</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108556</v>
+        <v>108382</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4602764908516219</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3957603705568266</v>
+        <v>0.3867456130982971</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5260764115509265</v>
+        <v>0.5252298325575195</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>241</v>
@@ -857,19 +857,19 @@
         <v>250467</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>230292</v>
+        <v>227631</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>274003</v>
+        <v>271725</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5131278448994735</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4717944574103572</v>
+        <v>0.466343371582177</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5613453758468862</v>
+        <v>0.5566784131172718</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>94465</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>80153</v>
+        <v>80311</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>109087</v>
+        <v>110098</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4806948692935175</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4078642654458517</v>
+        <v>0.4086705879166959</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5550984591360343</v>
+        <v>0.5602443185163887</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>140</v>
@@ -982,19 +982,19 @@
         <v>145637</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>130709</v>
+        <v>129283</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>158575</v>
+        <v>159872</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6516548836283783</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5848602729092941</v>
+        <v>0.578478728504992</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7095455633565529</v>
+        <v>0.7153500448182853</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>228</v>
@@ -1003,19 +1003,19 @@
         <v>240102</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>219312</v>
+        <v>218805</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>260196</v>
+        <v>259975</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5716637781038009</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5221644331233288</v>
+        <v>0.5209568458058045</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6195043231183708</v>
+        <v>0.61897910604189</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>102053</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>87431</v>
+        <v>86420</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>116365</v>
+        <v>116207</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5193051307064825</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4449015408639657</v>
+        <v>0.4397556814836114</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5921357345541483</v>
+        <v>0.5913294120833041</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>78</v>
@@ -1053,19 +1053,19 @@
         <v>77851</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64913</v>
+        <v>63616</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>92779</v>
+        <v>94205</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3483451163716217</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2904544366434471</v>
+        <v>0.2846499551817147</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4151397270907058</v>
+        <v>0.421521271495008</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>176</v>
@@ -1074,19 +1074,19 @@
         <v>179904</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>159810</v>
+        <v>160031</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>200694</v>
+        <v>201201</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4283362218961991</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3804956768816292</v>
+        <v>0.38102089395811</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4778355668766712</v>
+        <v>0.4790431541941953</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>133019</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>114652</v>
+        <v>114592</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>150047</v>
+        <v>151087</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.392097883663197</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.337958313013407</v>
+        <v>0.337780294805187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4422912456530399</v>
+        <v>0.4453586889684393</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>67</v>
@@ -1199,19 +1199,19 @@
         <v>71099</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>59879</v>
+        <v>59792</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>82172</v>
+        <v>82690</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5637964443658231</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4748300684078432</v>
+        <v>0.4741358033767555</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.651607118291297</v>
+        <v>0.6557119196444653</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>196</v>
@@ -1220,19 +1220,19 @@
         <v>204118</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>183889</v>
+        <v>182200</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>226600</v>
+        <v>224030</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4386266038058456</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3951583729670635</v>
+        <v>0.3915280599962724</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4869398944304312</v>
+        <v>0.481415759321266</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>206230</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>189202</v>
+        <v>188162</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>224597</v>
+        <v>224657</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.607902116336803</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5577087543469601</v>
+        <v>0.5546413110315607</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6620416869865929</v>
+        <v>0.6622197051948131</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -1270,19 +1270,19 @@
         <v>55008</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>43935</v>
+        <v>43417</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>66228</v>
+        <v>66315</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4362035556341769</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3483928817087033</v>
+        <v>0.3442880803555349</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.525169931592157</v>
+        <v>0.5258641966232447</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>261</v>
@@ -1291,19 +1291,19 @@
         <v>261238</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>238756</v>
+        <v>241326</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>281467</v>
+        <v>283156</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5613733961941544</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5130601055695687</v>
+        <v>0.5185842406787342</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6048416270329364</v>
+        <v>0.608471940003728</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>266383</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>240302</v>
+        <v>238942</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>294192</v>
+        <v>291750</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3430035497390436</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3094211759209817</v>
+        <v>0.3076700282669058</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3788113731220695</v>
+        <v>0.3756672001539791</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>253</v>
@@ -1416,19 +1416,19 @@
         <v>265429</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>243686</v>
+        <v>242803</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>287585</v>
+        <v>285575</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5647533566896262</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5184914182227954</v>
+        <v>0.5166121547905582</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6118949908229916</v>
+        <v>0.6076179966092353</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>511</v>
@@ -1437,19 +1437,19 @@
         <v>531812</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>500056</v>
+        <v>495623</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>565785</v>
+        <v>569518</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4266066775930411</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4011324670892041</v>
+        <v>0.397576347426069</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4538586931962379</v>
+        <v>0.4568535376971106</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>510236</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>482427</v>
+        <v>484869</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>536317</v>
+        <v>537677</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6569964502609564</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6211886268779304</v>
+        <v>0.624332799846021</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6905788240790183</v>
+        <v>0.6923299717330944</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>203</v>
@@ -1487,19 +1487,19 @@
         <v>204562</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>182406</v>
+        <v>184416</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>226305</v>
+        <v>227188</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4352466433103738</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3881050091770085</v>
+        <v>0.3923820033907645</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4815085817772047</v>
+        <v>0.4833878452094418</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>723</v>
@@ -1508,19 +1508,19 @@
         <v>714798</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>680825</v>
+        <v>677092</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>746554</v>
+        <v>750987</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5733933224069589</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.546141306803762</v>
+        <v>0.5431464623028894</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5988675329107959</v>
+        <v>0.6024236525739309</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>70056</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55938</v>
+        <v>55361</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84807</v>
+        <v>84117</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3381079126312432</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2699721525558121</v>
+        <v>0.2671897617535461</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4093039130244204</v>
+        <v>0.4059725110484228</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>189</v>
@@ -1633,19 +1633,19 @@
         <v>198457</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>177749</v>
+        <v>178201</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>220542</v>
+        <v>219477</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4891336633214213</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4380949861264244</v>
+        <v>0.4392100421849775</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.543567471078909</v>
+        <v>0.5409419215501421</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>255</v>
@@ -1654,19 +1654,19 @@
         <v>268513</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>241982</v>
+        <v>243037</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>290293</v>
+        <v>294982</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4380798603203485</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3947946075591585</v>
+        <v>0.3965157395419341</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4736151446434457</v>
+        <v>0.4812650542486344</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>137143</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>122392</v>
+        <v>123082</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>151261</v>
+        <v>151838</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6618920873687568</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5906960869755796</v>
+        <v>0.5940274889515771</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.730027847444188</v>
+        <v>0.732810238246454</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>197</v>
@@ -1704,19 +1704,19 @@
         <v>207274</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>185189</v>
+        <v>186254</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>227982</v>
+        <v>227530</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5108663366785787</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4564325289210902</v>
+        <v>0.4590580784498577</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5619050138735754</v>
+        <v>0.5607899578150225</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>336</v>
@@ -1725,19 +1725,19 @@
         <v>344418</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>322638</v>
+        <v>317949</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>370949</v>
+        <v>369894</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5619201396796515</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.526384855356554</v>
+        <v>0.5187349457513655</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6052053924408413</v>
+        <v>0.6034842604580658</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>15802</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9637</v>
+        <v>9073</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24975</v>
+        <v>24393</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1478974171549957</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09019757044207133</v>
+        <v>0.08492163472979257</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2337549342731219</v>
+        <v>0.2283095504910619</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>261</v>
@@ -1850,19 +1850,19 @@
         <v>265631</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>238254</v>
+        <v>241467</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>291973</v>
+        <v>293154</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3058075110885455</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2742904062270199</v>
+        <v>0.2779889421196067</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.33613354875621</v>
+        <v>0.3374932977716696</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>276</v>
@@ -1871,19 +1871,19 @@
         <v>281433</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>255187</v>
+        <v>255315</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>311304</v>
+        <v>310313</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.288511504674972</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2616056415997</v>
+        <v>0.261737368258512</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3191345796321313</v>
+        <v>0.3181183538745427</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>91041</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>81868</v>
+        <v>82450</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>97206</v>
+        <v>97770</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8521025828450043</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7662450657268781</v>
+        <v>0.7716904495089378</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9098024295579286</v>
+        <v>0.9150783652702075</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>590</v>
@@ -1921,19 +1921,19 @@
         <v>602990</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>576648</v>
+        <v>575467</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>630367</v>
+        <v>627154</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6941924889114545</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6638664512437903</v>
+        <v>0.6625067022283303</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7257095937729813</v>
+        <v>0.7220110578803932</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>683</v>
@@ -1942,19 +1942,19 @@
         <v>694031</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>664160</v>
+        <v>665151</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>720277</v>
+        <v>720149</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.711488495325028</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6808654203678685</v>
+        <v>0.6818816461254572</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7383943584002997</v>
+        <v>0.738262631741488</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>706004</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>661390</v>
+        <v>662411</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>747146</v>
+        <v>750108</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3699848218613273</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3466049539745635</v>
+        <v>0.3471401280771698</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3915454907682195</v>
+        <v>0.3930982284122941</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1017</v>
@@ -2067,19 +2067,19 @@
         <v>1057625</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1010140</v>
+        <v>1009275</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1103520</v>
+        <v>1104417</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4597790841436596</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4391359692562227</v>
+        <v>0.4387602356959537</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4797312052331782</v>
+        <v>0.4801209011355188</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1696</v>
@@ -2088,19 +2088,19 @@
         <v>1763629</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1698624</v>
+        <v>1699343</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1825897</v>
+        <v>1835389</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4190648941659987</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4036188110890739</v>
+        <v>0.4037896196273519</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4338606897030394</v>
+        <v>0.4361161427001344</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1202192</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1161050</v>
+        <v>1158088</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1246806</v>
+        <v>1245785</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6300151781386728</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6084545092317805</v>
+        <v>0.6069017715877059</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6533950460254365</v>
+        <v>0.6528598719228301</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1217</v>
@@ -2138,19 +2138,19 @@
         <v>1242664</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1196769</v>
+        <v>1195872</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1290149</v>
+        <v>1291014</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.5402209158563404</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5202687947668225</v>
+        <v>0.5198790988644816</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5608640307437773</v>
+        <v>0.5612397643040464</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2420</v>
@@ -2159,19 +2159,19 @@
         <v>2444857</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2382589</v>
+        <v>2373097</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2509862</v>
+        <v>2509143</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5809351058340013</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5661393102969606</v>
+        <v>0.5638838572998652</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.596381188910926</v>
+        <v>0.5962103803726481</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>162272</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>145306</v>
+        <v>146816</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>178154</v>
+        <v>177393</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6358094222816161</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5693323743642061</v>
+        <v>0.5752497813895077</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.698037936690532</v>
+        <v>0.6950563328863719</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>150</v>
@@ -2526,19 +2526,19 @@
         <v>165539</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>151532</v>
+        <v>151656</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>176955</v>
+        <v>176696</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8005233176059079</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7327845268210386</v>
+        <v>0.7333869004416979</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8557276314401493</v>
+        <v>0.8544765606456042</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>302</v>
@@ -2547,19 +2547,19 @@
         <v>327811</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>306994</v>
+        <v>307232</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>349836</v>
+        <v>348549</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.709533012150007</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6644752907097218</v>
+        <v>0.6649907195527291</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7572059236425138</v>
+        <v>0.7544201329357212</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>92949</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77067</v>
+        <v>77828</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>109915</v>
+        <v>108405</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3641905777183839</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.301962063309468</v>
+        <v>0.3049436671136285</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.430667625635794</v>
+        <v>0.4247502186104924</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -2597,19 +2597,19 @@
         <v>41250</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>29834</v>
+        <v>30093</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>55257</v>
+        <v>55133</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1994766823940921</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1442723685598505</v>
+        <v>0.1455234393543958</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2672154731789614</v>
+        <v>0.2666130995583021</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>120</v>
@@ -2618,19 +2618,19 @@
         <v>134198</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>112173</v>
+        <v>113460</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>155015</v>
+        <v>154777</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2904669878499931</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2427940763574856</v>
+        <v>0.2455798670642786</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3355247092902782</v>
+        <v>0.3350092804472706</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>158793</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>140380</v>
+        <v>140304</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>176103</v>
+        <v>175428</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5875082519856605</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5193831688424541</v>
+        <v>0.519102100116117</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6515487730522531</v>
+        <v>0.6490524182127984</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>178</v>
@@ -2743,19 +2743,19 @@
         <v>198995</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>185146</v>
+        <v>186580</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>209830</v>
+        <v>209452</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.839072815329467</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7806792287959819</v>
+        <v>0.7867243380622004</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8847610664317209</v>
+        <v>0.8831672749525205</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>323</v>
@@ -2764,19 +2764,19 @@
         <v>357788</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>334727</v>
+        <v>334233</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>379777</v>
+        <v>378752</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7050802784669261</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6596348108208112</v>
+        <v>0.6586617261283463</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7484132704200486</v>
+        <v>0.7463932104863171</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>111490</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>94180</v>
+        <v>94855</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>129903</v>
+        <v>129979</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4124917480143395</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3484512269477469</v>
+        <v>0.3509475817872014</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4806168311575461</v>
+        <v>0.4808978998838818</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>35</v>
@@ -2814,19 +2814,19 @@
         <v>38165</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27330</v>
+        <v>27708</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>52014</v>
+        <v>50580</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.160927184670533</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1152389335682784</v>
+        <v>0.11683272504748</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2193207712040176</v>
+        <v>0.2132756619378002</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>129</v>
@@ -2835,19 +2835,19 @@
         <v>149655</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>127666</v>
+        <v>128691</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>172716</v>
+        <v>173210</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2949197215330739</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2515867295799515</v>
+        <v>0.2536067895136825</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3403651891791888</v>
+        <v>0.3413382738716538</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>202209</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>180380</v>
+        <v>181171</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>222994</v>
+        <v>225031</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4944783971340218</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4410986793850676</v>
+        <v>0.4430327940864462</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5453070678749921</v>
+        <v>0.5502888164871378</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>104</v>
@@ -2960,19 +2960,19 @@
         <v>109387</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>94722</v>
+        <v>95783</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122926</v>
+        <v>122263</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.597981372147144</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5178120444088963</v>
+        <v>0.5236125068931364</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6719948908273345</v>
+        <v>0.6683701069914714</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>299</v>
@@ -2981,19 +2981,19 @@
         <v>311596</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>286617</v>
+        <v>285833</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>334893</v>
+        <v>337034</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5264682702473877</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4842643644938664</v>
+        <v>0.4829410314222673</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5658310623988558</v>
+        <v>0.5694483979859674</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>206724</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>185939</v>
+        <v>183902</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>228553</v>
+        <v>227762</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5055216028659782</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4546929321250079</v>
+        <v>0.4497111835128622</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5589013206149321</v>
+        <v>0.5569672059135538</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>70</v>
@@ -3031,19 +3031,19 @@
         <v>73540</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>60001</v>
+        <v>60664</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>88205</v>
+        <v>87144</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.402018627852856</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.328005109172665</v>
+        <v>0.3316298930085284</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4821879555911032</v>
+        <v>0.4763874931068635</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>254</v>
@@ -3052,19 +3052,19 @@
         <v>280264</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>256967</v>
+        <v>254826</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>305243</v>
+        <v>306027</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4735317297526123</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4341689376011442</v>
+        <v>0.4305516020140325</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5157356355061337</v>
+        <v>0.5170589685777327</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>367792</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>336595</v>
+        <v>339104</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>394734</v>
+        <v>395722</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4716984301218047</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4316882380308151</v>
+        <v>0.4349053835710883</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5062525165466624</v>
+        <v>0.5075189073510319</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>380</v>
@@ -3177,19 +3177,19 @@
         <v>406623</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>385275</v>
+        <v>385862</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>425220</v>
+        <v>423825</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7794139734967516</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7384954219217622</v>
+        <v>0.7396198634898618</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8150607604318988</v>
+        <v>0.8123873056278281</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>728</v>
@@ -3198,19 +3198,19 @@
         <v>774414</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>740785</v>
+        <v>738015</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>812168</v>
+        <v>809602</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5950528838905003</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5692126349621475</v>
+        <v>0.5670839266345411</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.624062539101934</v>
+        <v>0.6220909394440081</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>411926</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>384984</v>
+        <v>383996</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>443123</v>
+        <v>440614</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5283015698781953</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4937474834533377</v>
+        <v>0.492481092648968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5683117619691849</v>
+        <v>0.5650946164289117</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>108</v>
@@ -3248,19 +3248,19 @@
         <v>115080</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>96483</v>
+        <v>97878</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>136428</v>
+        <v>135841</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2205860265032484</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1849392395681012</v>
+        <v>0.1876126943721719</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2615045780782378</v>
+        <v>0.2603801365101383</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>496</v>
@@ -3269,19 +3269,19 @@
         <v>527007</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>489253</v>
+        <v>491819</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>560636</v>
+        <v>563406</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4049471161094997</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.375937460898066</v>
+        <v>0.3779090605559919</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4307873650378526</v>
+        <v>0.4329160733654589</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>146857</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>126663</v>
+        <v>128560</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>162859</v>
+        <v>164960</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4584251052235965</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3953869850513605</v>
+        <v>0.4013089408012537</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5083774743395963</v>
+        <v>0.5149348671220891</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>333</v>
@@ -3394,19 +3394,19 @@
         <v>361698</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>336297</v>
+        <v>337276</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>385203</v>
+        <v>384771</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.61729140177456</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5739410802819039</v>
+        <v>0.5756105514269977</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6574059112106281</v>
+        <v>0.6566681613803211</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>474</v>
@@ -3415,19 +3415,19 @@
         <v>508555</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>478616</v>
+        <v>477958</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>538793</v>
+        <v>540115</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5611364228175687</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5281017383874536</v>
+        <v>0.5273760824563531</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5945011801181737</v>
+        <v>0.5959598681276125</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>173494</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>157492</v>
+        <v>155391</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>193688</v>
+        <v>191791</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5415748947764035</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4916225256604037</v>
+        <v>0.4850651328779109</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6046130149486397</v>
+        <v>0.5986910591987464</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>210</v>
@@ -3465,19 +3465,19 @@
         <v>224246</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>200741</v>
+        <v>201173</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>249647</v>
+        <v>248668</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.38270859822544</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3425940887893721</v>
+        <v>0.3433318386196789</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4260589197180961</v>
+        <v>0.4243894485730024</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>374</v>
@@ -3486,19 +3486,19 @@
         <v>397740</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>367502</v>
+        <v>366180</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>427679</v>
+        <v>428337</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4388635771824313</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4054988198818265</v>
+        <v>0.4040401318723875</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4718982616125465</v>
+        <v>0.4726239175436468</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>17320</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9867</v>
+        <v>10224</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>26140</v>
+        <v>26201</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.168446859363106</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09596166540140828</v>
+        <v>0.09943435735924742</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.254229624511954</v>
+        <v>0.2548172031924409</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>291</v>
@@ -3611,19 +3611,19 @@
         <v>304717</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>278811</v>
+        <v>280450</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>334039</v>
+        <v>333902</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3930815063785427</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3596634436075244</v>
+        <v>0.3617767791386745</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4309063874364349</v>
+        <v>0.4307291256522014</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>307</v>
@@ -3632,19 +3632,19 @@
         <v>322037</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>294903</v>
+        <v>295406</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>349016</v>
+        <v>351062</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3667755914197599</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3358722080209858</v>
+        <v>0.3364452814753114</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3975025740684541</v>
+        <v>0.3998328160117622</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>85501</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>76681</v>
+        <v>76620</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>92954</v>
+        <v>92597</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.831553140636894</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.745770375488046</v>
+        <v>0.7451827968075591</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9040383345985917</v>
+        <v>0.9005656426407525</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>441</v>
@@ -3682,19 +3682,19 @@
         <v>470484</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>441162</v>
+        <v>441299</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>496390</v>
+        <v>494751</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6069184936214573</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5690936125635651</v>
+        <v>0.5692708743477984</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6403365563924756</v>
+        <v>0.6382232208613253</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>524</v>
@@ -3703,19 +3703,19 @@
         <v>555985</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>529006</v>
+        <v>526960</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>583119</v>
+        <v>582616</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6332244085802401</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6024974259315466</v>
+        <v>0.6001671839882378</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6641277919790146</v>
+        <v>0.6635547185246889</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>1055242</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1005082</v>
+        <v>1007889</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1103311</v>
+        <v>1108924</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4937206355335992</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4702518663310503</v>
+        <v>0.4715655090300852</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5162106913571823</v>
+        <v>0.5188369434892081</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1436</v>
@@ -3828,19 +3828,19 @@
         <v>1546959</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1499038</v>
+        <v>1498973</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1594925</v>
+        <v>1595116</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6163860313008704</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5972919369441548</v>
+        <v>0.5972661571213765</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6354981597949869</v>
+        <v>0.6355740829291567</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2433</v>
@@ -3849,19 +3849,19 @@
         <v>2602201</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2527926</v>
+        <v>2529163</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2670657</v>
+        <v>2673360</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5599683144200349</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5439851944698036</v>
+        <v>0.544251291269635</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5746994102976214</v>
+        <v>0.5752810534112373</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>1082084</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1034015</v>
+        <v>1028402</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1132244</v>
+        <v>1129437</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5062793644664008</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4837893086428177</v>
+        <v>0.4811630565107921</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5297481336689498</v>
+        <v>0.5284344909699149</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>900</v>
@@ -3899,19 +3899,19 @@
         <v>962765</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>914799</v>
+        <v>914608</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1010686</v>
+        <v>1010751</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3836139686991296</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3645018402050131</v>
+        <v>0.3644259170708433</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.402708063055845</v>
+        <v>0.4027338428786235</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1897</v>
@@ -3920,19 +3920,19 @@
         <v>2044849</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1976393</v>
+        <v>1973690</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2119124</v>
+        <v>2117887</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4400316855799651</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4253005897023787</v>
+        <v>0.4247189465887628</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4560148055301964</v>
+        <v>0.455748708730365</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>101091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86499</v>
+        <v>85975</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>115900</v>
+        <v>115317</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4612875550643799</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3947030752420885</v>
+        <v>0.3923146205101289</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5288639956667543</v>
+        <v>0.5262046231288378</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>148</v>
@@ -4287,19 +4287,19 @@
         <v>150454</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>135828</v>
+        <v>136865</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>163626</v>
+        <v>162469</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7278194925576794</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6570673979718381</v>
+        <v>0.66208046096261</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.791536172555855</v>
+        <v>0.7859422852289111</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>241</v>
@@ -4308,19 +4308,19 @@
         <v>251545</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>229555</v>
+        <v>230351</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>271528</v>
+        <v>270657</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5906638301940914</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5390287881634424</v>
+        <v>0.5408979072085113</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6375870666164846</v>
+        <v>0.6355419399580432</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>118058</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>103249</v>
+        <v>103832</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>132650</v>
+        <v>133174</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5387124449356201</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4711360043332457</v>
+        <v>0.4737953768711622</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6052969247579114</v>
+        <v>0.607685379489871</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -4358,19 +4358,19 @@
         <v>56265</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>43093</v>
+        <v>44250</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70891</v>
+        <v>69854</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2721805074423205</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2084638274441451</v>
+        <v>0.2140577147710889</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.342932602028162</v>
+        <v>0.3379195390373896</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>162</v>
@@ -4379,19 +4379,19 @@
         <v>174323</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>154340</v>
+        <v>155211</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>196313</v>
+        <v>195517</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.4093361698059086</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3624129333835153</v>
+        <v>0.3644580600419567</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4609712118365576</v>
+        <v>0.4591020927914882</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>113104</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>96750</v>
+        <v>98386</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>128582</v>
+        <v>130068</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4944136287288826</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4229286582399417</v>
+        <v>0.4300774513966447</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5620759421758276</v>
+        <v>0.5685706389645951</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>168</v>
@@ -4504,19 +4504,19 @@
         <v>173066</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>159449</v>
+        <v>158767</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>188287</v>
+        <v>186893</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7105760592590303</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6546660654023803</v>
+        <v>0.6518634373544802</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7730672604802877</v>
+        <v>0.7673432018079653</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>276</v>
@@ -4525,19 +4525,19 @@
         <v>286170</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>265389</v>
+        <v>264314</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>307894</v>
+        <v>306502</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6058805008757004</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5618818998003727</v>
+        <v>0.5596059068647251</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6518741070196906</v>
+        <v>0.6489275364343625</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>115659</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>100181</v>
+        <v>98695</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>132013</v>
+        <v>130377</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5055863712711174</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4379240578241724</v>
+        <v>0.4314293610354049</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5770713417600583</v>
+        <v>0.5699225486033552</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>66</v>
@@ -4575,19 +4575,19 @@
         <v>70492</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55271</v>
+        <v>56665</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>84109</v>
+        <v>84791</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2894239407409696</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2269327395197123</v>
+        <v>0.2326567981920345</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3453339345976196</v>
+        <v>0.3481365626455198</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>176</v>
@@ -4596,19 +4596,19 @@
         <v>186151</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>164427</v>
+        <v>165819</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>206932</v>
+        <v>208007</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3941194991242996</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3481258929803095</v>
+        <v>0.3510724635656375</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4381181001996273</v>
+        <v>0.4403940931352751</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>151417</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132427</v>
+        <v>133729</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>169189</v>
+        <v>169570</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4581748036548978</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4007126503425757</v>
+        <v>0.40465322034788</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5119510914452562</v>
+        <v>0.5131048543339803</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>55</v>
@@ -4721,19 +4721,19 @@
         <v>58631</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45596</v>
+        <v>48002</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69254</v>
+        <v>70585</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4785106705519506</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3721258487610303</v>
+        <v>0.3917597538884717</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5652089092578894</v>
+        <v>0.5760683954890163</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>199</v>
@@ -4742,19 +4742,19 @@
         <v>210048</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>188330</v>
+        <v>187974</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>232295</v>
+        <v>231418</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.463675198462692</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4157350030550049</v>
+        <v>0.4149478755652647</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5127860694325541</v>
+        <v>0.5108489402374512</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>179061</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>161289</v>
+        <v>160908</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>198051</v>
+        <v>196749</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5418251963451023</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4880489085547439</v>
+        <v>0.4868951456660196</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5992873496574244</v>
+        <v>0.5953467796521199</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>55</v>
@@ -4792,19 +4792,19 @@
         <v>63897</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>53274</v>
+        <v>51943</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>76932</v>
+        <v>74526</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5214893294480494</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4347910907421105</v>
+        <v>0.4239316045109837</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6278741512389694</v>
+        <v>0.6082402461115284</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>234</v>
@@ -4813,19 +4813,19 @@
         <v>242958</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>220711</v>
+        <v>221588</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>264676</v>
+        <v>265032</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.536324801537308</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4872139305674457</v>
+        <v>0.4891510597625486</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.584264996944995</v>
+        <v>0.585052124434735</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>291663</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>267673</v>
+        <v>267204</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>317779</v>
+        <v>314524</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4579980303991575</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4203267885754032</v>
+        <v>0.4195909612174364</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4990091142251046</v>
+        <v>0.4938966315789168</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>327</v>
@@ -4938,19 +4938,19 @@
         <v>327409</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>304896</v>
+        <v>302890</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>349913</v>
+        <v>348960</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6265316522001849</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5834511746694565</v>
+        <v>0.5796108715104181</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6695950185560982</v>
+        <v>0.667770997232471</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>608</v>
@@ -4959,19 +4959,19 @@
         <v>619072</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>586167</v>
+        <v>587356</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>652907</v>
+        <v>650335</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.5339611788489838</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.505580349340629</v>
+        <v>0.5066053694255582</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5631443154683471</v>
+        <v>0.5609257524608525</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>345158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>319042</v>
+        <v>322297</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>369148</v>
+        <v>369617</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5420019696008425</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5009908857748954</v>
+        <v>0.5061033684210827</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5796732114245967</v>
+        <v>0.5804090387825636</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>178</v>
@@ -5009,19 +5009,19 @@
         <v>195165</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>172661</v>
+        <v>173614</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>217678</v>
+        <v>219684</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3734683477998151</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3304049814439017</v>
+        <v>0.3322290027675292</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4165488253305432</v>
+        <v>0.4203891284895819</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>525</v>
@@ -5030,19 +5030,19 @@
         <v>540323</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>506488</v>
+        <v>509060</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>573228</v>
+        <v>572039</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4660388211510162</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4368556845316529</v>
+        <v>0.4390742475391471</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.494419650659371</v>
+        <v>0.4933946305744418</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>153932</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>135846</v>
+        <v>134340</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>175564</v>
+        <v>173679</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4096640814755483</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3615323324353369</v>
+        <v>0.3575238197113982</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4672344721340541</v>
+        <v>0.4622185291467325</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>259</v>
@@ -5155,19 +5155,19 @@
         <v>263725</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>240780</v>
+        <v>240005</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>288247</v>
+        <v>286956</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5273935750345103</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4815073458455596</v>
+        <v>0.4799579733589848</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5764325361062973</v>
+        <v>0.5738503770878332</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>402</v>
@@ -5176,19 +5176,19 @@
         <v>417657</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>389478</v>
+        <v>384717</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>448319</v>
+        <v>447999</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4768834633260309</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4447086098889365</v>
+        <v>0.4392727162898092</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5118935056742087</v>
+        <v>0.5115285395749718</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>221819</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>200187</v>
+        <v>202072</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>239905</v>
+        <v>241411</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5903359185244517</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5327655278659459</v>
+        <v>0.5377814708532676</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6384676675646631</v>
+        <v>0.6424761802886017</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>214</v>
@@ -5226,19 +5226,19 @@
         <v>236329</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>211807</v>
+        <v>213098</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>259274</v>
+        <v>260049</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4726064249654897</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4235674638937028</v>
+        <v>0.4261496229121669</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5184926541544405</v>
+        <v>0.5200420266410152</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>441</v>
@@ -5247,19 +5247,19 @@
         <v>458148</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>427486</v>
+        <v>427806</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>486327</v>
+        <v>491088</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5231165366739691</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4881064943257913</v>
+        <v>0.4884714604250283</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5552913901110635</v>
+        <v>0.5607272837101908</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>26073</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>16968</v>
+        <v>17553</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>35282</v>
+        <v>35626</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2487115282504562</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1618532528803635</v>
+        <v>0.1674383758511064</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3365540890561321</v>
+        <v>0.3398364844363672</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>204</v>
@@ -5372,19 +5372,19 @@
         <v>218339</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>193778</v>
+        <v>193172</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>246671</v>
+        <v>243850</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2992204523094125</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2655617786064479</v>
+        <v>0.2647313896988796</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3380481024197068</v>
+        <v>0.3341817963177404</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>227</v>
@@ -5393,19 +5393,19 @@
         <v>244412</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>219371</v>
+        <v>218204</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>273756</v>
+        <v>273285</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2928754768677101</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.262869441260809</v>
+        <v>0.2614706311509821</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3280377884246957</v>
+        <v>0.3274739067793621</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>78761</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>69552</v>
+        <v>69208</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87866</v>
+        <v>87281</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7512884717495438</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6634459109438678</v>
+        <v>0.6601635155636325</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8381467471196365</v>
+        <v>0.8325616241488931</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>448</v>
@@ -5443,19 +5443,19 @@
         <v>511353</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>483021</v>
+        <v>485842</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>535914</v>
+        <v>536520</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7007795476905875</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6619518975802933</v>
+        <v>0.6658182036822595</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.734438221393552</v>
+        <v>0.7352686103011205</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>522</v>
@@ -5464,19 +5464,19 @@
         <v>590114</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>560770</v>
+        <v>561241</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>615155</v>
+        <v>616322</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7071245231322898</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6719622115753043</v>
+        <v>0.6725260932206372</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7371305587391913</v>
+        <v>0.7385293688490172</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>837279</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>795537</v>
+        <v>795418</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>881450</v>
+        <v>884359</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4416502703867626</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4196321684123918</v>
+        <v>0.419569625870141</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4649499290394135</v>
+        <v>0.4664843695279295</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1161</v>
@@ -5589,19 +5589,19 @@
         <v>1191625</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1142764</v>
+        <v>1142790</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1241983</v>
+        <v>1237044</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5124992339948691</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4914849609971861</v>
+        <v>0.4914959485644625</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5341574385320323</v>
+        <v>0.5320334158234867</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1953</v>
@@ -5610,19 +5610,19 @@
         <v>2028904</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1963530</v>
+        <v>1964602</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2094225</v>
+        <v>2094572</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4806779368604269</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4651900098587548</v>
+        <v>0.465443823534299</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4961536524120446</v>
+        <v>0.4962357734808602</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>1058517</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1014346</v>
+        <v>1011437</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1100259</v>
+        <v>1100378</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5583497296132374</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5350500709605865</v>
+        <v>0.5335156304720704</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5803678315876082</v>
+        <v>0.5804303741298589</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1011</v>
@@ -5660,19 +5660,19 @@
         <v>1133500</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1083142</v>
+        <v>1088081</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1182361</v>
+        <v>1182335</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4875007660051309</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4658425614679674</v>
+        <v>0.4679665841765137</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5085150390028136</v>
+        <v>0.5085040514355375</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2060</v>
@@ -5681,19 +5681,19 @@
         <v>2192017</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2126696</v>
+        <v>2126349</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2257391</v>
+        <v>2256319</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5193220631395731</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5038463475879553</v>
+        <v>0.5037642265191401</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5348099901412452</v>
+        <v>0.5345561764657012</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>40360</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28640</v>
+        <v>28774</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>55452</v>
+        <v>54842</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.0732993769256185</v>
+        <v>0.07329937692561851</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05201343037228901</v>
+        <v>0.05225722255022448</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1007085804521768</v>
+        <v>0.09960145276508035</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>76</v>
@@ -6048,19 +6048,19 @@
         <v>57176</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>46099</v>
+        <v>45035</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71307</v>
+        <v>71562</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1170660649047807</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09438544619589333</v>
+        <v>0.0922071630690247</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1459981681190319</v>
+        <v>0.1465198928306315</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>115</v>
@@ -6069,19 +6069,19 @@
         <v>97536</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82192</v>
+        <v>82087</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>121487</v>
+        <v>117758</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.0938725502612365</v>
+        <v>0.09387255026123649</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07910482415927286</v>
+        <v>0.07900361396878942</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1169236906709279</v>
+        <v>0.1133343766291782</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>510258</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>495166</v>
+        <v>495776</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>521978</v>
+        <v>521844</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9267006230743816</v>
+        <v>0.9267006230743814</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8992914195478231</v>
+        <v>0.9003985472349195</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9479865696277107</v>
+        <v>0.9477427774497753</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>610</v>
@@ -6119,19 +6119,19 @@
         <v>431235</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>417104</v>
+        <v>416849</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>442312</v>
+        <v>443376</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8829339350952193</v>
+        <v>0.8829339350952192</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.854001831880968</v>
+        <v>0.8534801071693685</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9056145538041058</v>
+        <v>0.9077928369309753</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1125</v>
@@ -6140,19 +6140,19 @@
         <v>941493</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>917542</v>
+        <v>921271</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>956837</v>
+        <v>956942</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9061274497387637</v>
+        <v>0.9061274497387635</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8830763093290723</v>
+        <v>0.8866656233708218</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9208951758407271</v>
+        <v>0.9209963860312106</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>31441</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21561</v>
+        <v>21728</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>44737</v>
+        <v>44997</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06506704567437092</v>
+        <v>0.0650670456743709</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04462034368292393</v>
+        <v>0.04496658453615132</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.09258282610940116</v>
+        <v>0.09311959864782005</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -6265,19 +6265,19 @@
         <v>52462</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40836</v>
+        <v>41216</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>65349</v>
+        <v>66262</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1239814871494015</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09650673739146763</v>
+        <v>0.09740552275238622</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1544378617454854</v>
+        <v>0.1565956247927684</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>98</v>
@@ -6286,19 +6286,19 @@
         <v>83903</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69797</v>
+        <v>69743</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>103197</v>
+        <v>104877</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09257196911615355</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07700801470168006</v>
+        <v>0.07694883149096197</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1138594841372991</v>
+        <v>0.1157123911338747</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>451771</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>438475</v>
+        <v>438215</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>461651</v>
+        <v>461484</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.934932954325629</v>
+        <v>0.9349329543256291</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9074171738905988</v>
+        <v>0.9068804013521795</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.955379656317076</v>
+        <v>0.9550334154638487</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>522</v>
@@ -6336,19 +6336,19 @@
         <v>370681</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>357794</v>
+        <v>356881</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>382307</v>
+        <v>381927</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8760185128505985</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8455621382545147</v>
+        <v>0.8434043752072319</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9034932626085324</v>
+        <v>0.9025944772476138</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>973</v>
@@ -6357,19 +6357,19 @@
         <v>822452</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>803158</v>
+        <v>801478</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>836558</v>
+        <v>836612</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9074280308838465</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.886140515862701</v>
+        <v>0.8842876088661253</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9229919852983201</v>
+        <v>0.9230511685090381</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>52467</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>39702</v>
+        <v>39860</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68750</v>
+        <v>69001</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1112501529528866</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08418296324558285</v>
+        <v>0.08451770305558569</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1457765529772281</v>
+        <v>0.1463097646654919</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -6482,19 +6482,19 @@
         <v>18040</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11861</v>
+        <v>12473</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25480</v>
+        <v>25325</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09621334682502176</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06326168796055734</v>
+        <v>0.06652535272152654</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1358935425248352</v>
+        <v>0.1350684153472159</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>76</v>
@@ -6503,19 +6503,19 @@
         <v>70507</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53357</v>
+        <v>54786</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84984</v>
+        <v>88282</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1069726202180123</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08095309034621392</v>
+        <v>0.08312139585513258</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1289376414853224</v>
+        <v>0.1339409151551346</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>419145</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>402862</v>
+        <v>402611</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>431910</v>
+        <v>431752</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8887498470471135</v>
+        <v>0.8887498470471134</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8542234470227719</v>
+        <v>0.8536902353345078</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9158170367544171</v>
+        <v>0.9154822969444141</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>262</v>
@@ -6553,19 +6553,19 @@
         <v>169457</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>162017</v>
+        <v>162172</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>175636</v>
+        <v>175024</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9037866531749782</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8641064574751649</v>
+        <v>0.8649315846527841</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9367383120394425</v>
+        <v>0.9334746472784734</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>701</v>
@@ -6574,19 +6574,19 @@
         <v>588602</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>574125</v>
+        <v>570827</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>605752</v>
+        <v>604323</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8930273797819879</v>
+        <v>0.8930273797819877</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8710623585146772</v>
+        <v>0.8660590848448649</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9190469096537857</v>
+        <v>0.9168786041448674</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>126423</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>103070</v>
+        <v>106422</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>150140</v>
+        <v>149951</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1116963006758555</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09106362452273969</v>
+        <v>0.0940251720412319</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1326506723325291</v>
+        <v>0.1324840374908005</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>142</v>
@@ -6699,19 +6699,19 @@
         <v>110517</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>93891</v>
+        <v>94493</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>130879</v>
+        <v>129076</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1283269740604752</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1090223828159906</v>
+        <v>0.109721537466767</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1519714528199181</v>
+        <v>0.1498767433538155</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>259</v>
@@ -6720,19 +6720,19 @@
         <v>236939</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>210628</v>
+        <v>207593</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>268584</v>
+        <v>268613</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1188825206017268</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1056808960274505</v>
+        <v>0.104158398383031</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1347600010835862</v>
+        <v>0.1347747082375109</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1005420</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>981703</v>
+        <v>981892</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1028773</v>
+        <v>1025421</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8883036993241444</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8673493276674711</v>
+        <v>0.8675159625091995</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9089363754772601</v>
+        <v>0.905974827958768</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1088</v>
@@ -6770,19 +6770,19 @@
         <v>750694</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>730332</v>
+        <v>732135</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>767320</v>
+        <v>766718</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8716730259395249</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8480285471800814</v>
+        <v>0.8501232566461842</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8909776171840094</v>
+        <v>0.8902784625332328</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2089</v>
@@ -6791,19 +6791,19 @@
         <v>1756115</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1724470</v>
+        <v>1724441</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1782426</v>
+        <v>1785461</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8811174793982731</v>
+        <v>0.8811174793982733</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8652399989164138</v>
+        <v>0.8652252917624897</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8943191039725494</v>
+        <v>0.8958416016169691</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>43921</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31876</v>
+        <v>31414</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>59771</v>
+        <v>59391</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.07733129676761133</v>
+        <v>0.0773312967676113</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05612303025294802</v>
+        <v>0.0553104083864947</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1052376174588163</v>
+        <v>0.1045677262571326</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>161</v>
@@ -6916,19 +6916,19 @@
         <v>125400</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>106676</v>
+        <v>108666</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>143292</v>
+        <v>145505</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1509297177682135</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1283938619736744</v>
+        <v>0.1307889518071992</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1724644927556489</v>
+        <v>0.1751282011594774</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>204</v>
@@ -6937,19 +6937,19 @@
         <v>169321</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>146211</v>
+        <v>148251</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>193307</v>
+        <v>194390</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1210463771561903</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1045247510048828</v>
+        <v>0.1059833221574265</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1381937913252879</v>
+        <v>0.1389678905208</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>524043</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>508193</v>
+        <v>508573</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>536088</v>
+        <v>536550</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9226687032323888</v>
+        <v>0.9226687032323886</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8947623825411838</v>
+        <v>0.8954322737428676</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.943876969747052</v>
+        <v>0.9446895916135054</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1129</v>
@@ -6987,19 +6987,19 @@
         <v>705450</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>687558</v>
+        <v>685345</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>724174</v>
+        <v>722184</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8490702822317865</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.827535507244351</v>
+        <v>0.8248717988405225</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8716061380263257</v>
+        <v>0.8692110481928009</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1633</v>
@@ -7008,19 +7008,19 @@
         <v>1229493</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1205507</v>
+        <v>1204424</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1252603</v>
+        <v>1250563</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8789536228438096</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8618062086747111</v>
+        <v>0.8610321094791998</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.895475248995117</v>
+        <v>0.8940166778425735</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>10510</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3772</v>
+        <v>3985</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>23849</v>
+        <v>23133</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.04430398117266142</v>
+        <v>0.04430398117266143</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01590066122323692</v>
+        <v>0.01679945354005897</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1005317090420639</v>
+        <v>0.09751395879429399</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>144</v>
@@ -7133,19 +7133,19 @@
         <v>109843</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>93916</v>
+        <v>92724</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>128158</v>
+        <v>130048</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1301024691655244</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.11123756894763</v>
+        <v>0.1098261707930595</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1517959976970231</v>
+        <v>0.1540342700299677</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>150</v>
@@ -7154,19 +7154,19 @@
         <v>120353</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>102162</v>
+        <v>99355</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>144793</v>
+        <v>142754</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1112826654851471</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09446270622075509</v>
+        <v>0.09186726067036356</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1338805733251815</v>
+        <v>0.1319952352164338</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>226718</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>213379</v>
+        <v>214095</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>233456</v>
+        <v>233243</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9556960188273386</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8994682909579361</v>
+        <v>0.902486041205706</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9840993387767628</v>
+        <v>0.983200546459941</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1015</v>
@@ -7204,19 +7204,19 @@
         <v>734438</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>716123</v>
+        <v>714233</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>750365</v>
+        <v>751557</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8698975308344754</v>
+        <v>0.8698975308344756</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8482040023029768</v>
+        <v>0.8459657299700322</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8887624310523697</v>
+        <v>0.8901738292069404</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1121</v>
@@ -7225,19 +7225,19 @@
         <v>961156</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>936716</v>
+        <v>938755</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>979347</v>
+        <v>982154</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.888717334514853</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8661194266748184</v>
+        <v>0.868004764783566</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9055372937792451</v>
+        <v>0.9081327393296365</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>305122</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>269349</v>
+        <v>269123</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>343647</v>
+        <v>339988</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08863450835475399</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07824287860201898</v>
+        <v>0.07817723544374083</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09982563330954806</v>
+        <v>0.09876263588834712</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>618</v>
@@ -7350,19 +7350,19 @@
         <v>473438</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>438323</v>
+        <v>441159</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>510573</v>
+        <v>514294</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.1302300916069927</v>
+        <v>0.1302300916069928</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1205709352156548</v>
+        <v>0.1213512010457252</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1404451070444274</v>
+        <v>0.1414685023661091</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>902</v>
@@ -7371,19 +7371,19 @@
         <v>778560</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>727588</v>
+        <v>722006</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>833748</v>
+        <v>826676</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1099991727631685</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1027976619585895</v>
+        <v>0.1020089838129209</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.117796528731659</v>
+        <v>0.1167973155024121</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3137354</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3098829</v>
+        <v>3102488</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3173127</v>
+        <v>3173353</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9113654916452462</v>
+        <v>0.9113654916452461</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.900174366690452</v>
+        <v>0.9012373641116528</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.921757121397981</v>
+        <v>0.9218227645562592</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4626</v>
@@ -7421,19 +7421,19 @@
         <v>3161955</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3124820</v>
+        <v>3121099</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3197070</v>
+        <v>3194234</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8697699083930074</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8595548929555714</v>
+        <v>0.85853149763389</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8794290647843451</v>
+        <v>0.8786487989542747</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7642</v>
@@ -7442,19 +7442,19 @@
         <v>6299309</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6244121</v>
+        <v>6251193</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6350281</v>
+        <v>6355863</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8900008272368313</v>
+        <v>0.8900008272368316</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.882203471268341</v>
+        <v>0.8832026844975877</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8972023380414105</v>
+        <v>0.8979910161870791</v>
       </c>
     </row>
     <row r="24">
